--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.517755</v>
+        <v>2.271905</v>
       </c>
       <c r="N2">
-        <v>7.553265</v>
+        <v>6.815715</v>
       </c>
       <c r="O2">
-        <v>0.2504376744648923</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P2">
-        <v>0.2866298851167919</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q2">
-        <v>21.31889239910667</v>
+        <v>15.251873056965</v>
       </c>
       <c r="R2">
-        <v>191.87003159196</v>
+        <v>137.266857512685</v>
       </c>
       <c r="S2">
-        <v>0.06843132657267995</v>
+        <v>0.08704986817104753</v>
       </c>
       <c r="T2">
-        <v>0.08965791405504471</v>
+        <v>0.09924004685875101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.687724000000001</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
         <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3668129038085003</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P3">
-        <v>0.4198231783721755</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q3">
-        <v>31.22551286904534</v>
+        <v>24.756624206172</v>
       </c>
       <c r="R3">
-        <v>281.0296158214081</v>
+        <v>222.809617855548</v>
       </c>
       <c r="S3">
-        <v>0.1002305011225912</v>
+        <v>0.1412981123995977</v>
       </c>
       <c r="T3">
-        <v>0.1313208161440354</v>
+        <v>0.1610850376939796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.7E-05</v>
+        <v>0.044076</v>
       </c>
       <c r="N4">
-        <v>0.000111</v>
+        <v>0.132228</v>
       </c>
       <c r="O4">
-        <v>3.680339808758603E-06</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P4">
-        <v>4.212207204164545E-06</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q4">
-        <v>0.0003132945893333334</v>
+        <v>0.295893339228</v>
       </c>
       <c r="R4">
-        <v>0.002819651304000001</v>
+        <v>2.663040053052</v>
       </c>
       <c r="S4">
-        <v>1.005641566867768E-06</v>
+        <v>0.001688807405902576</v>
       </c>
       <c r="T4">
-        <v>1.31757967714756E-06</v>
+        <v>0.001925302468785583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.8082785</v>
+        <v>2.0917535</v>
       </c>
       <c r="N5">
-        <v>7.616557</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O5">
-        <v>0.3788042963889053</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P5">
-        <v>0.2890316780750441</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q5">
-        <v>32.24629861417467</v>
+        <v>14.0424704591355</v>
       </c>
       <c r="R5">
-        <v>193.477791685048</v>
+        <v>84.25482275481301</v>
       </c>
       <c r="S5">
-        <v>0.1035071123732118</v>
+        <v>0.08014721848903333</v>
       </c>
       <c r="T5">
-        <v>0.09040919561293682</v>
+        <v>0.06091384846841644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>1.003042</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039625</v>
+        <v>2.271905</v>
       </c>
       <c r="N6">
-        <v>0.118875</v>
+        <v>6.815715</v>
       </c>
       <c r="O6">
-        <v>0.003941444997893504</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P6">
-        <v>0.004511046228784326</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q6">
-        <v>0.3355215703333334</v>
+        <v>0.7596053783366666</v>
       </c>
       <c r="R6">
-        <v>3.019694133</v>
+        <v>6.83644840503</v>
       </c>
       <c r="S6">
-        <v>0.001076987759111766</v>
+        <v>0.00433543787043449</v>
       </c>
       <c r="T6">
-        <v>0.001411056613701947</v>
+        <v>0.00494255840307202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.517755</v>
+        <v>3.687724</v>
       </c>
       <c r="N7">
-        <v>7.553265</v>
+        <v>11.063172</v>
       </c>
       <c r="O7">
-        <v>0.2504376744648923</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P7">
-        <v>0.2866298851167919</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q7">
-        <v>0.8418046702366666</v>
+        <v>1.232980685469333</v>
       </c>
       <c r="R7">
-        <v>7.57624203213</v>
+        <v>11.096826169224</v>
       </c>
       <c r="S7">
-        <v>0.002702101461039616</v>
+        <v>0.007037221312207228</v>
       </c>
       <c r="T7">
-        <v>0.003540261349523812</v>
+        <v>0.008022690757056462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.687724000000001</v>
+        <v>0.044076</v>
       </c>
       <c r="N8">
-        <v>11.063172</v>
+        <v>0.132228</v>
       </c>
       <c r="O8">
-        <v>0.3668129038085003</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P8">
-        <v>0.4198231783721755</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q8">
-        <v>1.232980685469333</v>
+        <v>0.014736693064</v>
       </c>
       <c r="R8">
-        <v>11.096826169224</v>
+        <v>0.132630237576</v>
       </c>
       <c r="S8">
-        <v>0.003957733936904448</v>
+        <v>8.410948502568137E-05</v>
       </c>
       <c r="T8">
-        <v>0.00518537615650107</v>
+        <v>9.58879020794454E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3.7E-05</v>
+        <v>2.0917535</v>
       </c>
       <c r="N9">
-        <v>0.000111</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O9">
-        <v>3.680339808758603E-06</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P9">
-        <v>4.212207204164545E-06</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q9">
-        <v>1.237085133333333E-05</v>
+        <v>0.6993722047156667</v>
       </c>
       <c r="R9">
-        <v>0.000111337662</v>
+        <v>4.196233228294001</v>
       </c>
       <c r="S9">
-        <v>3.970908768266404E-08</v>
+        <v>0.003991657811182199</v>
       </c>
       <c r="T9">
-        <v>5.202637664601245E-08</v>
+        <v>0.003033757672842926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H10">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8082785</v>
+        <v>2.271905</v>
       </c>
       <c r="N10">
-        <v>7.616557</v>
+        <v>6.815715</v>
       </c>
       <c r="O10">
-        <v>0.3788042963889053</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P10">
-        <v>0.2890316780750441</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q10">
-        <v>1.273287761065667</v>
+        <v>15.13494189312333</v>
       </c>
       <c r="R10">
-        <v>7.639726566394</v>
+        <v>136.21447703811</v>
       </c>
       <c r="S10">
-        <v>0.004087115266932548</v>
+        <v>0.08638248506606844</v>
       </c>
       <c r="T10">
-        <v>0.00356992669574615</v>
+        <v>0.09847920560761066</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H11">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.039625</v>
+        <v>3.687724</v>
       </c>
       <c r="N11">
-        <v>0.118875</v>
+        <v>11.063172</v>
       </c>
       <c r="O11">
-        <v>0.003941444997893504</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P11">
-        <v>0.004511046228784326</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q11">
-        <v>0.01324851308333333</v>
+        <v>24.56682319809866</v>
       </c>
       <c r="R11">
-        <v>0.11923661775</v>
+        <v>221.101408782888</v>
       </c>
       <c r="S11">
-        <v>4.252628647096116E-05</v>
+        <v>0.1402148256013267</v>
       </c>
       <c r="T11">
-        <v>5.571743715130386E-05</v>
+        <v>0.1598500509572893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.517755</v>
+        <v>0.044076</v>
       </c>
       <c r="N12">
-        <v>7.553265</v>
+        <v>0.132228</v>
       </c>
       <c r="O12">
-        <v>0.2504376744648923</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P12">
-        <v>0.2866298851167919</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q12">
-        <v>10.42358710741166</v>
+        <v>0.293624820968</v>
       </c>
       <c r="R12">
-        <v>93.812283966705</v>
+        <v>2.642623388712</v>
       </c>
       <c r="S12">
-        <v>0.03345858124580401</v>
+        <v>0.001675859867279676</v>
       </c>
       <c r="T12">
-        <v>0.04383703709957972</v>
+        <v>0.00191054179922182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.687724000000001</v>
+        <v>2.0917535</v>
       </c>
       <c r="N13">
-        <v>11.063172</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O13">
-        <v>0.3668129038085003</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P13">
-        <v>0.4198231783721755</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q13">
-        <v>15.26729659640933</v>
+        <v>13.93481139274633</v>
       </c>
       <c r="R13">
-        <v>137.405669367684</v>
+        <v>83.60886835647801</v>
       </c>
       <c r="S13">
-        <v>0.04900636204320968</v>
+        <v>0.0795327557603185</v>
       </c>
       <c r="T13">
-        <v>0.06420755546151653</v>
+        <v>0.06044684174938045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.7E-05</v>
+        <v>2.271905</v>
       </c>
       <c r="N14">
-        <v>0.000111</v>
+        <v>6.815715</v>
       </c>
       <c r="O14">
-        <v>3.680339808758603E-06</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P14">
-        <v>4.212207204164545E-06</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q14">
-        <v>0.0001531811963333333</v>
+        <v>5.924941943789999</v>
       </c>
       <c r="R14">
-        <v>0.001378630767</v>
+        <v>35.54965166274</v>
       </c>
       <c r="S14">
-        <v>4.916949846568664E-07</v>
+        <v>0.03381652949783092</v>
       </c>
       <c r="T14">
-        <v>6.442129487120272E-07</v>
+        <v>0.0257013904211843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.8082785</v>
+        <v>3.687724</v>
       </c>
       <c r="N15">
-        <v>7.616557</v>
+        <v>11.063172</v>
       </c>
       <c r="O15">
-        <v>0.3788042963889053</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P15">
-        <v>0.2890316780750441</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q15">
-        <v>15.76639612433817</v>
+        <v>9.617281798631998</v>
       </c>
       <c r="R15">
-        <v>94.598376746029</v>
+        <v>57.70369079179199</v>
       </c>
       <c r="S15">
-        <v>0.05060841726017767</v>
+        <v>0.05489051145442219</v>
       </c>
       <c r="T15">
-        <v>0.04420436616219128</v>
+        <v>0.04171813270782514</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.039625</v>
+        <v>0.044076</v>
       </c>
       <c r="N16">
-        <v>0.118875</v>
+        <v>0.132228</v>
       </c>
       <c r="O16">
-        <v>0.003941444997893504</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P16">
-        <v>0.004511046228784326</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q16">
-        <v>0.1640487812083333</v>
+        <v>0.114946593768</v>
       </c>
       <c r="R16">
-        <v>1.476439030875</v>
+        <v>0.689679562608</v>
       </c>
       <c r="S16">
-        <v>0.0005265787504602252</v>
+        <v>0.0006560561969564731</v>
       </c>
       <c r="T16">
-        <v>0.0006899172457490291</v>
+        <v>0.0004986187733220004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H17">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I17">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J17">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.517755</v>
+        <v>2.0917535</v>
       </c>
       <c r="N17">
-        <v>7.553265</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O17">
-        <v>0.2504376744648923</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P17">
-        <v>0.2866298851167919</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q17">
-        <v>29.59694520946</v>
+        <v>5.455121604213</v>
       </c>
       <c r="R17">
-        <v>177.58167125676</v>
+        <v>21.820486416852</v>
       </c>
       <c r="S17">
-        <v>0.09500297601141519</v>
+        <v>0.03113503598739431</v>
       </c>
       <c r="T17">
-        <v>0.08298118308100053</v>
+        <v>0.01577559313098589</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.755292</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H18">
-        <v>23.510584</v>
+        <v>15.976516</v>
       </c>
       <c r="I18">
-        <v>0.3793477806979605</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J18">
-        <v>0.2895063892140504</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.687724000000001</v>
+        <v>2.271905</v>
       </c>
       <c r="N18">
-        <v>11.063172</v>
+        <v>6.815715</v>
       </c>
       <c r="O18">
-        <v>0.3668129038085003</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P18">
-        <v>0.4198231783721755</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q18">
-        <v>43.350272435408</v>
+        <v>12.09904219432667</v>
       </c>
       <c r="R18">
-        <v>260.101634612448</v>
+        <v>108.89137974894</v>
       </c>
       <c r="S18">
-        <v>0.1391496609911291</v>
+        <v>0.06905512680825186</v>
       </c>
       <c r="T18">
-        <v>0.1215414924788947</v>
+        <v>0.07872538079922334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.755292</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H19">
-        <v>23.510584</v>
+        <v>15.976516</v>
       </c>
       <c r="I19">
-        <v>0.3793477806979605</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J19">
-        <v>0.2895063892140504</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.7E-05</v>
+        <v>3.687724</v>
       </c>
       <c r="N19">
-        <v>0.000111</v>
+        <v>11.063172</v>
       </c>
       <c r="O19">
-        <v>3.680339808758603E-06</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P19">
-        <v>4.212207204164545E-06</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q19">
-        <v>0.000434945804</v>
+        <v>19.63899382986133</v>
       </c>
       <c r="R19">
-        <v>0.002609674824</v>
+        <v>176.750944468752</v>
       </c>
       <c r="S19">
-        <v>1.396128738666932E-06</v>
+        <v>0.1120893032295953</v>
       </c>
       <c r="T19">
-        <v>1.219460898299088E-06</v>
+        <v>0.12778592246702</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.755292</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H20">
-        <v>23.510584</v>
+        <v>15.976516</v>
       </c>
       <c r="I20">
-        <v>0.3793477806979605</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J20">
-        <v>0.2895063892140504</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.8082785</v>
+        <v>0.044076</v>
       </c>
       <c r="N20">
-        <v>7.616557</v>
+        <v>0.132228</v>
       </c>
       <c r="O20">
-        <v>0.3788042963889053</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P20">
-        <v>0.2890316780750441</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q20">
-        <v>44.767425784822</v>
+        <v>0.234726973072</v>
       </c>
       <c r="R20">
-        <v>179.069703139288</v>
+        <v>2.112542757648</v>
       </c>
       <c r="S20">
-        <v>0.1436985691539837</v>
+        <v>0.001339701162328755</v>
       </c>
       <c r="T20">
-        <v>0.08367651748798384</v>
+        <v>0.001527308529232767</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.755292</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H21">
-        <v>23.510584</v>
+        <v>15.976516</v>
       </c>
       <c r="I21">
-        <v>0.3793477806979605</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J21">
-        <v>0.2895063892140504</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.039625</v>
+        <v>2.0917535</v>
       </c>
       <c r="N21">
-        <v>0.118875</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O21">
-        <v>0.003941444997893504</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P21">
-        <v>0.004511046228784326</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q21">
-        <v>0.4658034455</v>
+        <v>11.13964442026867</v>
       </c>
       <c r="R21">
-        <v>2.794820673</v>
+        <v>66.83786652161201</v>
       </c>
       <c r="S21">
-        <v>0.001495178412693978</v>
+        <v>0.06357937642379619</v>
       </c>
       <c r="T21">
-        <v>0.001305976705273009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6.291073</v>
-      </c>
-      <c r="H22">
-        <v>18.873219</v>
-      </c>
-      <c r="I22">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J22">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.517755</v>
-      </c>
-      <c r="N22">
-        <v>7.553265</v>
-      </c>
-      <c r="O22">
-        <v>0.2504376744648923</v>
-      </c>
-      <c r="P22">
-        <v>0.2866298851167919</v>
-      </c>
-      <c r="Q22">
-        <v>15.839380501115</v>
-      </c>
-      <c r="R22">
-        <v>142.554424510035</v>
-      </c>
-      <c r="S22">
-        <v>0.05084268917395348</v>
-      </c>
-      <c r="T22">
-        <v>0.06661348953164319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6.291073</v>
-      </c>
-      <c r="H23">
-        <v>18.873219</v>
-      </c>
-      <c r="I23">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J23">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.687724000000001</v>
-      </c>
-      <c r="N23">
-        <v>11.063172</v>
-      </c>
-      <c r="O23">
-        <v>0.3668129038085003</v>
-      </c>
-      <c r="P23">
-        <v>0.4198231783721755</v>
-      </c>
-      <c r="Q23">
-        <v>23.19974088785201</v>
-      </c>
-      <c r="R23">
-        <v>208.797667990668</v>
-      </c>
-      <c r="S23">
-        <v>0.07446864571466583</v>
-      </c>
-      <c r="T23">
-        <v>0.09756793813122777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6.291073</v>
-      </c>
-      <c r="H24">
-        <v>18.873219</v>
-      </c>
-      <c r="I24">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J24">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>3.7E-05</v>
-      </c>
-      <c r="N24">
-        <v>0.000111</v>
-      </c>
-      <c r="O24">
-        <v>3.680339808758603E-06</v>
-      </c>
-      <c r="P24">
-        <v>4.212207204164545E-06</v>
-      </c>
-      <c r="Q24">
-        <v>0.000232769701</v>
-      </c>
-      <c r="R24">
-        <v>0.002094927309</v>
-      </c>
-      <c r="S24">
-        <v>7.471654308843708E-07</v>
-      </c>
-      <c r="T24">
-        <v>9.789273033598576E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.291073</v>
-      </c>
-      <c r="H25">
-        <v>18.873219</v>
-      </c>
-      <c r="I25">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J25">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.8082785</v>
-      </c>
-      <c r="N25">
-        <v>7.616557</v>
-      </c>
-      <c r="O25">
-        <v>0.3788042963889053</v>
-      </c>
-      <c r="P25">
-        <v>0.2890316780750441</v>
-      </c>
-      <c r="Q25">
-        <v>23.9581580478305</v>
-      </c>
-      <c r="R25">
-        <v>143.748948286983</v>
-      </c>
-      <c r="S25">
-        <v>0.0769030823345996</v>
-      </c>
-      <c r="T25">
-        <v>0.06717167211618601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6.291073</v>
-      </c>
-      <c r="H26">
-        <v>18.873219</v>
-      </c>
-      <c r="I26">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J26">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.039625</v>
-      </c>
-      <c r="N26">
-        <v>0.118875</v>
-      </c>
-      <c r="O26">
-        <v>0.003941444997893504</v>
-      </c>
-      <c r="P26">
-        <v>0.004511046228784326</v>
-      </c>
-      <c r="Q26">
-        <v>0.249283767625</v>
-      </c>
-      <c r="R26">
-        <v>2.243553908625</v>
-      </c>
-      <c r="S26">
-        <v>0.0008001737891565727</v>
-      </c>
-      <c r="T26">
-        <v>0.001048378226909036</v>
+        <v>0.04832188283272063</v>
       </c>
     </row>
   </sheetData>
